--- a/output/H17_1_template.xlsx
+++ b/output/H17_1_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>参考様式第２-17 号</t>
   </si>
@@ -22,10 +22,10 @@
     <t>（日本産業規格Ａ列４）</t>
   </si>
   <si>
-    <t>申請区分</t>
-  </si>
-  <si>
-    <t>申請日</t>
+    <t>監 理 団 体 許 可 申 請 の  内 容 変 更 申 出 書</t>
+  </si>
+  <si>
+    <t>監 理 団 体 許 可 条 件 変 更 申 出 書</t>
   </si>
   <si>
     <t>年</t>
@@ -109,9 +109,6 @@
     <t>申出者</t>
   </si>
   <si>
-    <t>申請者の名称</t>
-  </si>
-  <si>
     <t xml:space="preserve">１ 下記の監理団体許可申請に係る許可条件の内容の変更をしたいので、下記のとおり申し出ます。
 ２ 下記の監理団体許可に付された条件を変更したいので、下記のとおり申し出ます。</t>
   </si>
@@ -122,13 +119,7 @@
     <t>１許可（申請受理）番号</t>
   </si>
   <si>
-    <t>許可番号</t>
-  </si>
-  <si>
     <t>２許可（申請）年月日</t>
-  </si>
-  <si>
-    <t>許可年月日</t>
   </si>
   <si>
     <t>３監理団体</t>
@@ -146,33 +137,18 @@
     </r>
   </si>
   <si>
-    <t>監理団体名（かな）</t>
-  </si>
-  <si>
-    <t>監理団体名</t>
-  </si>
-  <si>
     <t>②住所</t>
   </si>
   <si>
     <t>〒</t>
   </si>
   <si>
-    <t>監理団体の&lt;br&gt;郵便番号</t>
-  </si>
-  <si>
     <t>－</t>
   </si>
   <si>
-    <t>監理団体の&lt;br&gt;住所</t>
-  </si>
-  <si>
     <t xml:space="preserve">(電話 </t>
   </si>
   <si>
-    <t>監理団体の&lt;br&gt;電話番号</t>
-  </si>
-  <si>
     <t>―</t>
   </si>
   <si>
@@ -182,9 +158,6 @@
     <t>４変更を希望する許可条件</t>
   </si>
   <si>
-    <t>変更を希望する許可条件</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 特定の職種・作業に関するもの</t>
   </si>
   <si>
@@ -197,30 +170,18 @@
     <t xml:space="preserve">その他（ </t>
   </si>
   <si>
-    <t>変更希望でその他を選択した場合の詳細</t>
-  </si>
-  <si>
     <t>５変更を希望する理由</t>
   </si>
   <si>
-    <t>変更を希望する理由</t>
-  </si>
-  <si>
     <t>特定の職種・作業のうち、（</t>
   </si>
   <si>
-    <t>【取扱職種・作業の追加時】&lt;br&gt;職種名</t>
-  </si>
-  <si>
     <t>）職種の</t>
   </si>
   <si>
     <t>（</t>
   </si>
   <si>
-    <t>【取扱職種・作業の追加時】&lt;br&gt;作業名</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ）作業を取扱職種に追加できるようにしたい</t>
   </si>
   <si>
@@ -228,9 +189,6 @@
   </si>
   <si>
     <t>６備考</t>
-  </si>
-  <si>
-    <t>備考</t>
   </si>
   <si>
     <r>
@@ -1240,7 +1198,7 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1286,24 +1244,18 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>3</v>
-      </c>
+      <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7" t="s">
         <v>6</v>
@@ -1393,9 +1345,7 @@
         <v>10</v>
       </c>
       <c r="Q7" s="16"/>
-      <c r="R7" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
@@ -1424,15 +1374,11 @@
       <c r="O8" s="19"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -1441,7 +1387,7 @@
     </row>
     <row r="9" ht="48" customHeight="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1486,7 +1432,7 @@
     </row>
     <row r="10" ht="40" customHeight="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -1531,7 +1477,7 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -1539,9 +1485,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="26" t="s">
-        <v>15</v>
-      </c>
+      <c r="H11" s="26"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
@@ -1564,7 +1508,7 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -1574,24 +1518,18 @@
       <c r="G12" s="32"/>
       <c r="H12" s="33"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="35" t="s">
-        <v>17</v>
-      </c>
+      <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="N12" s="37"/>
       <c r="O12" s="37"/>
       <c r="P12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Q12" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
       <c r="S12" s="36" t="s">
         <v>6</v>
@@ -1607,20 +1545,18 @@
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="43"/>
-      <c r="I13" s="44" t="s">
-        <v>20</v>
-      </c>
+      <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
@@ -1649,9 +1585,7 @@
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="49"/>
-      <c r="I14" s="50" t="s">
-        <v>21</v>
-      </c>
+      <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="50"/>
       <c r="L14" s="50"/>
@@ -1675,25 +1609,21 @@
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="53" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I15" s="53"/>
       <c r="J15" s="53"/>
       <c r="K15" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="53" t="s">
-        <v>24</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L15" s="53"/>
       <c r="M15" s="53"/>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
@@ -1718,9 +1648,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="56" t="s">
-        <v>26</v>
-      </c>
+      <c r="H16" s="56"/>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -1758,35 +1686,29 @@
       <c r="N17" s="9"/>
       <c r="O17" s="18"/>
       <c r="P17" s="59" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="59"/>
-      <c r="R17" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="U17" s="22" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="U17" s="22"/>
       <c r="V17" s="22"/>
       <c r="W17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="X17" s="59" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="X17" s="59"/>
       <c r="Y17" s="59"/>
       <c r="Z17" s="60" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA17" s="29"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -1794,11 +1716,11 @@
       <c r="E18" s="61"/>
       <c r="F18" s="61"/>
       <c r="G18" s="61"/>
-      <c r="H18" s="52" t="s">
-        <v>32</v>
+      <c r="H18" s="52">
+        <v>1</v>
       </c>
       <c r="I18" s="62" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J18" s="62"/>
       <c r="K18" s="62"/>
@@ -1827,11 +1749,11 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="H19" s="64" t="s">
-        <v>32</v>
+      <c r="H19" s="64">
+        <v>2</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
@@ -1861,7 +1783,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="64" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
@@ -1891,17 +1813,15 @@
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="66" t="s">
-        <v>32</v>
+      <c r="H21" s="66">
+        <v>3</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
-      <c r="L21" s="34" t="s">
-        <v>37</v>
-      </c>
+      <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
       <c r="O21" s="34"/>
@@ -1912,7 +1832,7 @@
       <c r="T21" s="34"/>
       <c r="U21" s="34"/>
       <c r="V21" s="22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
@@ -1922,7 +1842,7 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="62"/>
@@ -1930,11 +1850,11 @@
       <c r="E22" s="62"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62"/>
-      <c r="H22" s="68" t="s">
-        <v>39</v>
+      <c r="H22" s="68">
+        <v>1</v>
       </c>
       <c r="I22" s="69" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J22" s="69"/>
       <c r="K22" s="69"/>
@@ -1942,9 +1862,7 @@
       <c r="M22" s="69"/>
       <c r="N22" s="69"/>
       <c r="O22" s="69"/>
-      <c r="P22" s="70" t="s">
-        <v>41</v>
-      </c>
+      <c r="P22" s="70"/>
       <c r="Q22" s="70"/>
       <c r="R22" s="70"/>
       <c r="S22" s="70"/>
@@ -1953,7 +1871,7 @@
       <c r="V22" s="70"/>
       <c r="W22" s="70"/>
       <c r="X22" s="71" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Y22" s="71"/>
       <c r="Z22" s="72"/>
@@ -1969,17 +1887,15 @@
       <c r="G23" s="21"/>
       <c r="H23" s="75"/>
       <c r="I23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>44</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
       <c r="N23" s="34"/>
       <c r="O23" s="59" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P23" s="59"/>
       <c r="Q23" s="59"/>
@@ -2002,17 +1918,15 @@
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
-      <c r="H24" s="79" t="s">
-        <v>39</v>
+      <c r="H24" s="79">
+        <v>2</v>
       </c>
       <c r="I24" s="80" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J24" s="80"/>
       <c r="K24" s="80"/>
-      <c r="L24" s="81" t="s">
-        <v>37</v>
-      </c>
+      <c r="L24" s="81"/>
       <c r="M24" s="81"/>
       <c r="N24" s="81"/>
       <c r="O24" s="81"/>
@@ -2024,7 +1938,7 @@
       <c r="U24" s="81"/>
       <c r="V24" s="81"/>
       <c r="W24" s="82" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="X24" s="82"/>
       <c r="Y24" s="82"/>
@@ -2033,7 +1947,7 @@
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -2041,9 +1955,7 @@
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="84" t="s">
-        <v>48</v>
-      </c>
+      <c r="H25" s="84"/>
       <c r="I25" s="85"/>
       <c r="J25" s="85"/>
       <c r="K25" s="85"/>
@@ -2066,7 +1978,7 @@
     </row>
     <row r="26" ht="182" customHeight="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="87" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
